--- a/99~参考资料/2003~大雄背起行囊~产品设计自查清单.xlsx
+++ b/99~参考资料/2003~大雄背起行囊~产品设计自查清单.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14100"/>
+    <workbookView windowWidth="30240" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="133">
   <si>
     <t>如下内容来自公众号：大雄背起行囊
 如有疑问，欢迎加微信探讨：daxiong704576</t>
@@ -167,7 +180,7 @@
     <t>跳转操作</t>
   </si>
   <si>
-    <t>是否考虑返回：如物理、home键、侧边栏返回</t>
+    <t>是否考虑返回：如物理、Home 键、侧边栏返回</t>
   </si>
   <si>
     <t>不同的返回按键需要考虑到与用户预期一致</t>
@@ -422,12 +435,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -451,15 +464,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -474,15 +519,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,23 +552,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,30 +568,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,14 +587,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -582,14 +595,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,181 +641,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,11 +913,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,17 +937,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,17 +976,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -997,157 +999,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,9 +1200,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1216,64 +1226,58 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1540,27 +1544,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.9821428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.4107142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.2053571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.7678571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.4553571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="82.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.14285714285714" style="1"/>
-    <col min="9" max="9" width="9.14285714285714" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="13.9833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.2083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.7666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.4583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="82.2833333333333" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.14166666666667" style="1"/>
+    <col min="9" max="9" width="9.14166666666667" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1578,19 +1582,16 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="1"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
       <c r="F3" s="5"/>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1605,7 +1606,7 @@
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1623,10 +1624,10 @@
       <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1637,10 +1638,10 @@
       <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1651,10 +1652,10 @@
       <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1665,10 +1666,10 @@
       <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1683,10 +1684,10 @@
       <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1697,10 +1698,10 @@
       <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1708,13 +1709,13 @@
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1725,10 +1726,10 @@
       <c r="D12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1736,13 +1737,13 @@
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1752,13 +1753,13 @@
       <c r="C14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1766,13 +1767,13 @@
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1782,13 +1783,13 @@
       <c r="C16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1796,13 +1797,13 @@
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1810,13 +1811,13 @@
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1826,13 +1827,13 @@
       <c r="C19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1840,13 +1841,13 @@
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1861,10 +1862,10 @@
       <c r="D21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1877,10 +1878,10 @@
       <c r="D22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1888,13 +1889,13 @@
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1902,13 +1903,13 @@
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1918,13 +1919,13 @@
       <c r="C25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1932,13 +1933,13 @@
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1950,13 +1951,13 @@
       <c r="C27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1964,13 +1965,13 @@
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1980,13 +1981,13 @@
       <c r="C29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1994,13 +1995,13 @@
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2008,13 +2009,13 @@
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="10" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2024,13 +2025,13 @@
       <c r="C32" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2040,13 +2041,13 @@
       <c r="C33" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2058,145 +2059,145 @@
       <c r="C34" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="10" t="s">
         <v>87</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17" t="s">
+      <c r="E36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="16" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="17" t="s">
+      <c r="E37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="16" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="17" t="s">
+      <c r="E38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="17" t="s">
+      <c r="E39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="18"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="17" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="17" t="s">
+      <c r="E41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="18"/>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2210,13 +2211,13 @@
       <c r="C43" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="10" t="s">
         <v>114</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="10" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2226,13 +2227,13 @@
       <c r="C44" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="10" t="s">
         <v>117</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2242,13 +2243,13 @@
       <c r="C45" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="10" t="s">
         <v>120</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2260,13 +2261,13 @@
       <c r="C46" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2276,13 +2277,13 @@
       <c r="C47" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2292,13 +2293,13 @@
       <c r="C48" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="10" t="s">
         <v>131</v>
       </c>
     </row>
